--- a/_resource/excel/1114-充值配置.xlsx
+++ b/_resource/excel/1114-充值配置.xlsx
@@ -61,19 +61,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>描述说明</t>
   </si>
   <si>
-    <t>key=Id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务器类型</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>uint32</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -90,10 +82,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>客户端类型</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Id</t>
   </si>
   <si>
@@ -149,6 +137,22 @@
   </si>
   <si>
     <t>xml=pay</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpp</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>csharp</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpp=Pay</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>key=Id,Int</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -600,13 +604,13 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="10.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.375" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.875" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.625" style="8" bestFit="1" customWidth="1"/>
@@ -624,12 +628,14 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:6" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
@@ -653,27 +659,27 @@
     </row>
     <row r="3" spans="1:6" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="F3" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="6" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
@@ -681,39 +687,39 @@
         <v>0</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="F5" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="7" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="E6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="F6" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -724,22 +730,22 @@
         <v>1</v>
       </c>
       <c r="C7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>